--- a/Experience Management Log.xlsx
+++ b/Experience Management Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HINOSTLE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HINOSTLE\Documents\PMP_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Table 1</t>
   </si>
@@ -97,6 +97,48 @@
   </si>
   <si>
     <t>Kevin Gros Jr.</t>
+  </si>
+  <si>
+    <t>F6663 GA-LP Crude BDMAE Distillation</t>
+  </si>
+  <si>
+    <t>F6662 GA-LP R/S MOIPA Purification</t>
+  </si>
+  <si>
+    <t>F5904 LP GPSC CE8</t>
+  </si>
+  <si>
+    <t>F5814 HYDRA CD8</t>
+  </si>
+  <si>
+    <t>F5750 Glycol Hotwell Exposure Reduction</t>
+  </si>
+  <si>
+    <t>L2390 REG FEL 3</t>
+  </si>
+  <si>
+    <t>Beau Callender</t>
+  </si>
+  <si>
+    <t>BACallender@fbd.com</t>
+  </si>
+  <si>
+    <t>Hargrove Engineering</t>
+  </si>
+  <si>
+    <t>Chris Hammer</t>
+  </si>
+  <si>
+    <t>chris.hammer@hargrove-epc.com</t>
+  </si>
+  <si>
+    <t>(504) 854-8723</t>
+  </si>
+  <si>
+    <t>4150 S. Sherwood Forest Blvd, Park Lawn Ave Suite 210, Baton Rouge, LA 70816</t>
+  </si>
+  <si>
+    <t>(225) 227-2000</t>
   </si>
 </sst>
 </file>
@@ -104,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -235,7 +277,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -263,43 +305,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1460,11 +1508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV23"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N42" sqref="N42"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1476,32 +1524,32 @@
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" style="14" customWidth="1"/>
-    <col min="10" max="14" width="11.7109375" style="20" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" style="13" customWidth="1"/>
+    <col min="10" max="14" width="11.7109375" style="19" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="47.140625" style="1" customWidth="1"/>
     <col min="17" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1525,25 +1573,25 @@
       <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -1560,229 +1608,346 @@
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>43831</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>43863</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>10</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>20</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="15">
         <v>40</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="15">
         <v>90</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="15"/>
       <c r="O3" s="6">
         <f>SUM(J3:N3)</f>
         <v>160</v>
       </c>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+    <row r="4" spans="1:16" ht="36">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="6">
-        <f t="shared" ref="O4:O21" si="0">SUM(J4:N4)</f>
+        <f t="shared" ref="O4:O22" si="0">SUM(J4:N4)</f>
         <v>0</v>
       </c>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:16" ht="36">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="6"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+    <row r="6" spans="1:16" ht="36">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
       <c r="O6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+    <row r="7" spans="1:16" ht="36">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+    <row r="8" spans="1:16" ht="36">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+    <row r="9" spans="1:16" ht="36">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:16" ht="63.75">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="1:16" ht="63.75">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:16" ht="63.75">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="F12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1797,13 +1962,13 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1818,13 +1983,13 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1839,13 +2004,13 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1860,13 +2025,13 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1881,13 +2046,13 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1902,13 +2067,13 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1923,13 +2088,13 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1944,13 +2109,13 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
       <c r="O20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1965,13 +2130,13 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1986,22 +2151,20 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="8">
-        <f>SUM(O3:O21)</f>
-        <v>160</v>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="25.5">
+    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2009,20 +2172,43 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="19" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="8">
+        <f>SUM(O3:O22)</f>
+        <v>160</v>
+      </c>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="25.5">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="8">
-        <f>SUM(7500-O22)</f>
+      <c r="O24" s="8">
+        <f>SUM(7500-O23)</f>
         <v>7340</v>
       </c>
-      <c r="P23" s="7"/>
+      <c r="P24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2030,9 +2216,17 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId10"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Experience Management Log.xlsx
+++ b/Experience Management Log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>Table 1</t>
   </si>
@@ -93,9 +93,6 @@
     <t>(225) 297-3626</t>
   </si>
   <si>
-    <t>F6664 GA-LP BDMAE &amp; Flexsorb Equip.</t>
-  </si>
-  <si>
     <t>Kevin Gros Jr.</t>
   </si>
   <si>
@@ -139,6 +136,30 @@
   </si>
   <si>
     <t>(225) 227-2000</t>
+  </si>
+  <si>
+    <t>Upgrade of special valves and instruments to improve the reading of product. Increase capacity of two drums replaceing them with bigger ones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace and increase size of piping lines to improve and have a better control of amount of hydrogen being input in Distillation process.  </t>
+  </si>
+  <si>
+    <t>Installation of new Cooling Fan. All piping and instrumentaton connected to this equipment was replaced and upgraded to a higer capacity.</t>
+  </si>
+  <si>
+    <t>All Pressure Safety Valves (PSV) were located at a higher elevation. The outlet for all PSV's was routed to a new header to collect relief product.</t>
+  </si>
+  <si>
+    <t>F6665 GA-LP BDMAE &amp; Flexsorb Equip.</t>
+  </si>
+  <si>
+    <t>F6664 GA-LP R/S Crude MOIPA Distillation</t>
+  </si>
+  <si>
+    <t>Replace and increase tower head distillation and reconnect pipe lines to new nozzles. Replace two new exchangers and provide service lines to other equipments</t>
+  </si>
+  <si>
+    <t>Provide Front End Engineering Design (FEED) for unit upgrade project. Estimations and material take-out for whole project.</t>
   </si>
 </sst>
 </file>
@@ -344,11 +365,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,11 +1529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV24"/>
+  <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1532,24 +1553,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.6" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1601,12 +1622,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="38.25" customHeight="1">
+    <row r="3" spans="1:16" ht="51">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>22</v>
@@ -1615,7 +1636,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>18</v>
@@ -1641,19 +1662,23 @@
       <c r="M3" s="15">
         <v>90</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="15">
+        <v>5</v>
+      </c>
       <c r="O3" s="6">
         <f>SUM(J3:N3)</f>
-        <v>160</v>
-      </c>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="36">
+        <v>165</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>22</v>
@@ -1662,7 +1687,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>18</v>
@@ -1670,25 +1695,41 @@
       <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="H4" s="11">
+        <v>43831</v>
+      </c>
+      <c r="I4" s="11">
+        <v>43863</v>
+      </c>
+      <c r="J4" s="15">
+        <v>10</v>
+      </c>
+      <c r="K4" s="15">
+        <v>20</v>
+      </c>
+      <c r="L4" s="15">
+        <v>40</v>
+      </c>
+      <c r="M4" s="15">
+        <v>90</v>
+      </c>
+      <c r="N4" s="15">
+        <v>5</v>
+      </c>
       <c r="O4" s="6">
-        <f t="shared" ref="O4:O22" si="0">SUM(J4:N4)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="36">
+        <f>SUM(J4:N4)</f>
+        <v>165</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="38.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>22</v>
@@ -1697,7 +1738,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>18</v>
@@ -1712,15 +1753,20 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="36">
+      <c r="O5" s="6">
+        <f t="shared" ref="O5:O23" si="0">SUM(J5:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="38.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>22</v>
@@ -1729,7 +1775,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>18</v>
@@ -1744,18 +1790,17 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="36">
+      <c r="O6" s="6"/>
+      <c r="P6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="38.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>22</v>
@@ -1763,8 +1808,8 @@
       <c r="D7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>29</v>
+      <c r="E7" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>18</v>
@@ -1783,14 +1828,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="36">
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="38.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>
@@ -1798,8 +1845,8 @@
       <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>30</v>
+      <c r="E8" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>18</v>
@@ -1807,8 +1854,12 @@
       <c r="G8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="12">
+        <v>43481</v>
+      </c>
+      <c r="I8" s="12">
+        <v>43677</v>
+      </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -1818,23 +1869,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="36">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>31</v>
+      <c r="E9" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>18</v>
@@ -1842,8 +1895,12 @@
       <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="12">
+        <v>43348</v>
+      </c>
+      <c r="I9" s="12">
+        <v>43454</v>
+      </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -1855,28 +1912,34 @@
       </c>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="63.75">
-      <c r="A10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+    <row r="10" spans="1:16" ht="36">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="12">
+        <v>43277</v>
+      </c>
+      <c r="I10" s="12">
+        <v>43347</v>
+      </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -1890,23 +1953,23 @@
     </row>
     <row r="11" spans="1:16" ht="63.75">
       <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1923,23 +1986,23 @@
     </row>
     <row r="12" spans="1:16" ht="63.75">
       <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="D12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1954,14 +2017,26 @@
       </c>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+    <row r="13" spans="1:16" ht="63.75">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="16"/>
@@ -2178,16 +2253,14 @@
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="8">
-        <f>SUM(O3:O22)</f>
-        <v>160</v>
+      <c r="N23" s="16"/>
+      <c r="O23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="25.5">
+    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2201,32 +2274,56 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="8">
+        <f>SUM(O3:O23)</f>
+        <v>330</v>
+      </c>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="25.5">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="8">
-        <f>SUM(7500-O23)</f>
-        <v>7340</v>
-      </c>
-      <c r="P24" s="7"/>
+      <c r="O25" s="8">
+        <f>SUM(7500-O24)</f>
+        <v>7170</v>
+      </c>
+      <c r="P25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait" r:id="rId10"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId11"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
